--- a/tb_redacoes.xlsx
+++ b/tb_redacoes.xlsx
@@ -589,59 +589,57 @@
       <c r="B2" s="2" t="inlineStr"/>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>Desafios do equilíbrio entre necessidades materiais, consumismo e relações humanas</t>
+          <t>Tecnologias climáticas: inovação a favor do planeta ou novo capitalismo verde?</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>02/07/2025</t>
+          <t>04/07/2025</t>
         </is>
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">	No cenário contemporâneo, marcado pelo avanço tecnológico e pela globalização, observa-se a crescente dificuldade em equilibrar as necessidades materiais com a preservação das relações humanas. O consumismo, incentivado por um modelo capitalista que valoriza o ter em detrimento do ser, tem afetado diretamente a forma como as pessoas se relacionam, gerando distanciamento afetivo, superficialidade nos vínculos e uma busca incessante por bens como forma de validação pessoal. Esse desequilíbrio configura-se como um desafio urgente, tanto do ponto de vista individual quanto social
-	Em primeiro lugar, é importante considerar que o consumo, em si, é uma prática natural e necessária à sobrevivência humana. Entretanto, a sua distorção em consumismo — caracterizada pelo desejo excessivo e muitas vezes irracional de adquirir bens — tem sido fomentada por estratégias de marketing que associam felicidade e status à posse de objetos. Essa lógica, quando internalizada, compromete o desenvolvimento de relações humanas autênticas, uma vez que incentiva a competitividade, a comparação constante e a valorização do material em detrimento de valores como empatia, solidariedade e convivência.
-	Além disso, o consumismo influencia diretamente o modo como as pessoas ocupam seu tempo e atenção. O excesso de trabalho para manter padrões de consumo elevados, somado à constante exposição às redes sociais que promovem um estilo de vida idealizado, contribui para o isolamento emocional e a fragilização dos laços interpessoais. Segundo o sociólogo Zygmunt Bauman, vivemos uma modernidade líquida, em que as relações se tornam voláteis e descartáveis — reflexo direto de uma sociedade que trata até mesmo os vínculos afetivos como produtos de consumo.
-	Dessa forma, para enfrentar os desafios impostos pelo consumismo à convivência humana, é necessário adotar medidas que promovam o consumo consciente e fortaleçam os vínculos sociais. Nesse sentido, cabe ao Estado, por meio do Ministério da Educação, incluir nos currículos escolares a disciplina de educação midiática e financeira, com foco na crítica à cultura do consumo e na valorização de relações humanas saudáveis. Paralelamente, campanhas de conscientização veiculadas em mídias digitais devem estimular a empatia, o diálogo e o tempo de qualidade com familiares e amigos como formas de bem-estar. Assim, será possível construir uma sociedade em que o equilíbrio entre o material e o humano não seja exceção, mas regra.
-	</t>
+          <t xml:space="preserve">	 As queimadas de 2024 causarão danos quase ireversiveis em areas do pantanal brasileiro esse acontecimento somado a outros como as enchentes no sul e as secas no nordeste provão que o aquecimento global ja esta afetando de forma direta o planeta e que precisamos  cada vez mais de tecnologias verdes para diminuir nosso impacto no meio ambiente.
+	Entretanto dados do IBGE revelarão que os investimentos em tecnologias sustentaveis nunca estiverão tão altos o que não contrasta com dados recentes de que a grande maioria das metas  de carbono estipuladas na convenção de Genebra não serão atingidas dentro do prazo estipulado isso acontece porque atualmente o uso de tecnologias sustentaveis pelas empresas e opcional e muitas fazem altos investimentos em modelos sustentaveis que nem saem dos laboratorios devido a varios fatores como preço de aplicação, resistencia de acionistas em relação a lucros ,ou as pesquisa so são usadas como fachada ambiental enquanto as empresas mantem politicas que fomentão a poluiçao gerando um grave problema no meio climatico.
+	para resolver esse problema agentes como os governos de diversos paises e a ONu devem trabalhar juntos para tornar o uso e o investimento em tecnologias  sustentaveis algo obrigatorio para as empresas isso poderia ser feito por meio do aumento dos impostos com base no indices de poluiçao das empresas ou por meio de politicas que reduziriam os impostos das mesmas a medida que elas diminuem seu impacto no meio ambiente para empresas que não conseguirem diminuir seu impacto a compra de cotas de carbono tambem seria um metodo eficiente o dinheiro poderia ser usado para investimento em pesquisas essa ações ajudarião a combater o capitalismo verde</t>
         </is>
       </c>
       <c r="F2" s="2" t="inlineStr"/>
       <c r="G2" s="2" t="n">
-        <v>840</v>
+        <v>640</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="L2" s="2" t="n">
         <v>160</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>980</v>
+        <v>480</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="S2" s="2" t="inlineStr"/>
       <c r="T2" s="2" t="inlineStr"/>
